--- a/data/pca/factorExposure/factorExposure_2011-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01306567506974131</v>
+        <v>-0.01446913544155386</v>
       </c>
       <c r="C2">
-        <v>-0.00893065161676948</v>
+        <v>0.002079478058468352</v>
       </c>
       <c r="D2">
-        <v>-0.05676680465510103</v>
+        <v>0.005497554807230379</v>
       </c>
       <c r="E2">
-        <v>0.008861236493416184</v>
+        <v>0.03750928128818647</v>
       </c>
       <c r="F2">
-        <v>0.02122566439870523</v>
+        <v>0.003283754775163858</v>
       </c>
       <c r="G2">
-        <v>0.02628267240081356</v>
+        <v>-0.005079730704111233</v>
       </c>
       <c r="H2">
-        <v>0.02604172541322401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03562109779485695</v>
+      </c>
+      <c r="I2">
+        <v>0.02002939424430396</v>
+      </c>
+      <c r="J2">
+        <v>0.01025380440359866</v>
+      </c>
+      <c r="K2">
+        <v>0.05143160177715406</v>
+      </c>
+      <c r="L2">
+        <v>-0.01482582203238105</v>
+      </c>
+      <c r="M2">
+        <v>-0.003085775848718783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08383851657406229</v>
+        <v>-0.1090141972393968</v>
       </c>
       <c r="C4">
-        <v>0.05691244412478</v>
+        <v>-0.07548762750958474</v>
       </c>
       <c r="D4">
-        <v>-0.032065320999164</v>
+        <v>0.0119776210732172</v>
       </c>
       <c r="E4">
-        <v>0.03391576698951611</v>
+        <v>0.03520958721293144</v>
       </c>
       <c r="F4">
-        <v>0.02556076441215577</v>
+        <v>-0.1627595970635667</v>
       </c>
       <c r="G4">
-        <v>0.01915360335127983</v>
+        <v>0.01825493330415688</v>
       </c>
       <c r="H4">
-        <v>-0.03503877661877462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.02811820681480953</v>
+      </c>
+      <c r="I4">
+        <v>-0.04377041175233473</v>
+      </c>
+      <c r="J4">
+        <v>0.01270935504519149</v>
+      </c>
+      <c r="K4">
+        <v>-0.08876053057941269</v>
+      </c>
+      <c r="L4">
+        <v>-0.03389557481506324</v>
+      </c>
+      <c r="M4">
+        <v>-0.05669336540301063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1327407932806405</v>
+        <v>-0.1337519469918413</v>
       </c>
       <c r="C6">
-        <v>0.04071273060447252</v>
+        <v>-0.0539597855217326</v>
       </c>
       <c r="D6">
-        <v>-0.04626812438050365</v>
+        <v>0.003716327226278976</v>
       </c>
       <c r="E6">
-        <v>0.06518018208545447</v>
+        <v>-0.001391979480029932</v>
       </c>
       <c r="F6">
-        <v>-0.1249684095652941</v>
+        <v>0.01464009197326867</v>
       </c>
       <c r="G6">
-        <v>-0.12624432729826</v>
+        <v>0.1079101991385981</v>
       </c>
       <c r="H6">
-        <v>-0.2426952913976342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.01026402212353502</v>
+      </c>
+      <c r="I6">
+        <v>-0.347749360981003</v>
+      </c>
+      <c r="J6">
+        <v>-0.2850234569897215</v>
+      </c>
+      <c r="K6">
+        <v>-0.04850959420169222</v>
+      </c>
+      <c r="L6">
+        <v>-0.1390212461855134</v>
+      </c>
+      <c r="M6">
+        <v>0.02298311143851752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07454802600729023</v>
+        <v>-0.06940111297225712</v>
       </c>
       <c r="C7">
-        <v>0.04719797265100119</v>
+        <v>-0.06221578997566721</v>
       </c>
       <c r="D7">
-        <v>-0.04380550810436235</v>
+        <v>0.008008318351724898</v>
       </c>
       <c r="E7">
-        <v>0.04694384459824143</v>
+        <v>0.04955417616846439</v>
       </c>
       <c r="F7">
-        <v>-0.04284438028368864</v>
+        <v>-0.03781951450664502</v>
       </c>
       <c r="G7">
-        <v>0.003253290753531586</v>
+        <v>0.0006632038096699576</v>
       </c>
       <c r="H7">
-        <v>0.0537772720759663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02193622381645047</v>
+      </c>
+      <c r="I7">
+        <v>0.0183952058086203</v>
+      </c>
+      <c r="J7">
+        <v>0.08789771185942066</v>
+      </c>
+      <c r="K7">
+        <v>-0.08533846809982545</v>
+      </c>
+      <c r="L7">
+        <v>-0.01122621000459727</v>
+      </c>
+      <c r="M7">
+        <v>0.05008744602484737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.04027520582047028</v>
+        <v>-0.04236656517479255</v>
       </c>
       <c r="C8">
-        <v>0.02510879385460954</v>
+        <v>-0.01721310807351153</v>
       </c>
       <c r="D8">
-        <v>-0.05816971059543699</v>
+        <v>0.006481091739527714</v>
       </c>
       <c r="E8">
-        <v>0.0500933640171658</v>
+        <v>0.02097646145335636</v>
       </c>
       <c r="F8">
-        <v>0.02213300528419639</v>
+        <v>-0.13506279676006</v>
       </c>
       <c r="G8">
-        <v>0.05821912313728234</v>
+        <v>-0.0127279012488893</v>
       </c>
       <c r="H8">
-        <v>0.01506877599160679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.03145985080510286</v>
+      </c>
+      <c r="I8">
+        <v>-0.07195408895381866</v>
+      </c>
+      <c r="J8">
+        <v>0.02992855225927981</v>
+      </c>
+      <c r="K8">
+        <v>-0.05493025594157755</v>
+      </c>
+      <c r="L8">
+        <v>-0.07906456336543136</v>
+      </c>
+      <c r="M8">
+        <v>-0.07154944649600568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08027856122185605</v>
+        <v>-0.08307943021895109</v>
       </c>
       <c r="C9">
-        <v>0.05904848330462442</v>
+        <v>-0.06443488344765151</v>
       </c>
       <c r="D9">
-        <v>-0.036283262058522</v>
+        <v>-0.00776901424058544</v>
       </c>
       <c r="E9">
-        <v>0.02862283939518471</v>
+        <v>0.0287326569906594</v>
       </c>
       <c r="F9">
-        <v>0.02050905276782494</v>
+        <v>-0.1432579692180377</v>
       </c>
       <c r="G9">
-        <v>0.01813131789130546</v>
+        <v>0.02378670766577496</v>
       </c>
       <c r="H9">
-        <v>0.002374330720168549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.004719771652656334</v>
+      </c>
+      <c r="I9">
+        <v>-0.01417653777086462</v>
+      </c>
+      <c r="J9">
+        <v>0.01919657852212685</v>
+      </c>
+      <c r="K9">
+        <v>-0.05107951055823727</v>
+      </c>
+      <c r="L9">
+        <v>-0.03646437972227946</v>
+      </c>
+      <c r="M9">
+        <v>0.009922147485031452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.04800760391664781</v>
+        <v>-0.1108415090994422</v>
       </c>
       <c r="C10">
-        <v>-0.1453767318165122</v>
+        <v>0.1633994417153111</v>
       </c>
       <c r="D10">
-        <v>-0.07560775994853551</v>
+        <v>0.01028228325662559</v>
       </c>
       <c r="E10">
-        <v>0.03634204818672119</v>
+        <v>0.03123418756192128</v>
       </c>
       <c r="F10">
-        <v>-0.03310575385262714</v>
+        <v>0.01407203218746715</v>
       </c>
       <c r="G10">
-        <v>-0.006225723370981763</v>
+        <v>0.02957112270661355</v>
       </c>
       <c r="H10">
-        <v>-0.01570376712691532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02324942079557289</v>
+      </c>
+      <c r="I10">
+        <v>0.0179488442337111</v>
+      </c>
+      <c r="J10">
+        <v>-0.007980570151358215</v>
+      </c>
+      <c r="K10">
+        <v>-0.001744951382986536</v>
+      </c>
+      <c r="L10">
+        <v>0.04638948733433948</v>
+      </c>
+      <c r="M10">
+        <v>0.1070477000592233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07564794916497181</v>
+        <v>-0.06863397888065223</v>
       </c>
       <c r="C11">
-        <v>0.07559971332434133</v>
+        <v>-0.07112003784523795</v>
       </c>
       <c r="D11">
-        <v>-0.01523519052906966</v>
+        <v>-0.03104316664036571</v>
       </c>
       <c r="E11">
-        <v>-0.002097393727325145</v>
+        <v>0.01136648915586143</v>
       </c>
       <c r="F11">
-        <v>0.02867407735873461</v>
+        <v>-0.1188982170433128</v>
       </c>
       <c r="G11">
-        <v>0.09722748588070988</v>
+        <v>0.01122458575967752</v>
       </c>
       <c r="H11">
-        <v>0.06336071943372211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.04464054247907806</v>
+      </c>
+      <c r="I11">
+        <v>0.07015108885766243</v>
+      </c>
+      <c r="J11">
+        <v>0.04626744490064399</v>
+      </c>
+      <c r="K11">
+        <v>0.06090248845263639</v>
+      </c>
+      <c r="L11">
+        <v>-0.02678192984154363</v>
+      </c>
+      <c r="M11">
+        <v>0.1232944402650646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07240181953672679</v>
+        <v>-0.06885345516443389</v>
       </c>
       <c r="C12">
-        <v>0.04809998446819393</v>
+        <v>-0.06277631164965922</v>
       </c>
       <c r="D12">
-        <v>-0.002494719087737656</v>
+        <v>-0.02848995507622494</v>
       </c>
       <c r="E12">
-        <v>0.04007564599852454</v>
+        <v>0.003609451774549681</v>
       </c>
       <c r="F12">
-        <v>0.01350687241567251</v>
+        <v>-0.1296088900885357</v>
       </c>
       <c r="G12">
-        <v>0.07935449823219573</v>
+        <v>-0.001396117931707701</v>
       </c>
       <c r="H12">
-        <v>0.06957160070480944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.04093718443799401</v>
+      </c>
+      <c r="I12">
+        <v>0.03600432239119134</v>
+      </c>
+      <c r="J12">
+        <v>0.05733746852735625</v>
+      </c>
+      <c r="K12">
+        <v>0.0538959364076563</v>
+      </c>
+      <c r="L12">
+        <v>-0.04403232563741955</v>
+      </c>
+      <c r="M12">
+        <v>0.1391343241561079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05197148421725663</v>
+        <v>-0.0448322671449088</v>
       </c>
       <c r="C13">
-        <v>0.002881999444851136</v>
+        <v>-0.03199320250240061</v>
       </c>
       <c r="D13">
-        <v>-0.001058272203859485</v>
+        <v>0.0195981832942423</v>
       </c>
       <c r="E13">
-        <v>0.01712423493474228</v>
+        <v>0.01571261547161427</v>
       </c>
       <c r="F13">
-        <v>0.0458516588555436</v>
+        <v>-0.04834575378429627</v>
       </c>
       <c r="G13">
-        <v>0.004997636759196892</v>
+        <v>-0.005478447871632063</v>
       </c>
       <c r="H13">
-        <v>0.08496611512777606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01786684345880479</v>
+      </c>
+      <c r="I13">
+        <v>-0.0118766516491685</v>
+      </c>
+      <c r="J13">
+        <v>0.02806627222360857</v>
+      </c>
+      <c r="K13">
+        <v>-0.04297013416140263</v>
+      </c>
+      <c r="L13">
+        <v>0.01646225343710503</v>
+      </c>
+      <c r="M13">
+        <v>-0.01380805973006953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05365926278574667</v>
+        <v>-0.03919286329367591</v>
       </c>
       <c r="C14">
-        <v>0.02184254051799348</v>
+        <v>-0.02752427221646971</v>
       </c>
       <c r="D14">
-        <v>-0.01838794125664852</v>
+        <v>-0.01512559889123661</v>
       </c>
       <c r="E14">
-        <v>0.02890681176936376</v>
+        <v>0.01211360435752054</v>
       </c>
       <c r="F14">
-        <v>-0.01008403809648997</v>
+        <v>-0.07070633387342454</v>
       </c>
       <c r="G14">
-        <v>-0.01836145283312702</v>
+        <v>-0.009333446212600077</v>
       </c>
       <c r="H14">
-        <v>-0.04563796618056121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.0298412749630565</v>
+      </c>
+      <c r="I14">
+        <v>-0.004999262466817563</v>
+      </c>
+      <c r="J14">
+        <v>-0.00534318675367588</v>
+      </c>
+      <c r="K14">
+        <v>-0.1024331369572764</v>
+      </c>
+      <c r="L14">
+        <v>-0.02496421497958724</v>
+      </c>
+      <c r="M14">
+        <v>0.003970536023727478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03616445365416919</v>
+        <v>-0.02513046424545699</v>
       </c>
       <c r="C15">
-        <v>-0.008566472662617846</v>
+        <v>-0.01082356778124333</v>
       </c>
       <c r="D15">
-        <v>0.00147338413978793</v>
+        <v>0.05402779919326759</v>
       </c>
       <c r="E15">
-        <v>0.02219030303115412</v>
+        <v>0.007204806890118744</v>
       </c>
       <c r="F15">
-        <v>0.01625856371257661</v>
+        <v>-0.009973559992475983</v>
       </c>
       <c r="G15">
-        <v>-0.01392004192662452</v>
+        <v>0.03363717516395667</v>
       </c>
       <c r="H15">
-        <v>-0.03456968889775568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01406739972644102</v>
+      </c>
+      <c r="I15">
+        <v>-0.01026544980905907</v>
+      </c>
+      <c r="J15">
+        <v>-0.01002314958498058</v>
+      </c>
+      <c r="K15">
+        <v>-0.08575704979828831</v>
+      </c>
+      <c r="L15">
+        <v>0.002037950787854033</v>
+      </c>
+      <c r="M15">
+        <v>0.01486454056669318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06545803972169818</v>
+        <v>-0.07194961071355122</v>
       </c>
       <c r="C16">
-        <v>0.07433593216736957</v>
+        <v>-0.07601436477981696</v>
       </c>
       <c r="D16">
-        <v>-0.01748897884979207</v>
+        <v>-0.02124137067980271</v>
       </c>
       <c r="E16">
-        <v>0.02567762245441221</v>
+        <v>0.01482964389284313</v>
       </c>
       <c r="F16">
-        <v>0.03392908462469136</v>
+        <v>-0.1195081967664463</v>
       </c>
       <c r="G16">
-        <v>0.07188445965637263</v>
+        <v>-0.002082852489439484</v>
       </c>
       <c r="H16">
-        <v>0.09909327519950151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.02724176089156089</v>
+      </c>
+      <c r="I16">
+        <v>0.04990838548225276</v>
+      </c>
+      <c r="J16">
+        <v>0.06597989182332821</v>
+      </c>
+      <c r="K16">
+        <v>0.04544002192875696</v>
+      </c>
+      <c r="L16">
+        <v>-0.04758517509995733</v>
+      </c>
+      <c r="M16">
+        <v>0.1261387657801197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04749596744021438</v>
+        <v>-0.04583406897709549</v>
       </c>
       <c r="C20">
-        <v>0.04236814981480567</v>
+        <v>-0.03115549362414212</v>
       </c>
       <c r="D20">
-        <v>-0.01156193830164117</v>
+        <v>0.0203691121628671</v>
       </c>
       <c r="E20">
-        <v>0.01080618866568453</v>
+        <v>0.02071865238158797</v>
       </c>
       <c r="F20">
-        <v>0.01470282394997663</v>
+        <v>-0.07184142860513638</v>
       </c>
       <c r="G20">
-        <v>0.02046277117339199</v>
+        <v>-0.02664238579161547</v>
       </c>
       <c r="H20">
-        <v>0.04737888642274753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.02183046224440439</v>
+      </c>
+      <c r="I20">
+        <v>-0.01534712929379779</v>
+      </c>
+      <c r="J20">
+        <v>0.02324407643001295</v>
+      </c>
+      <c r="K20">
+        <v>-0.06467164624318364</v>
+      </c>
+      <c r="L20">
+        <v>-0.04116250261569594</v>
+      </c>
+      <c r="M20">
+        <v>0.02818400715470888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02786491289870258</v>
+        <v>-0.02250824658682741</v>
       </c>
       <c r="C21">
-        <v>0.03418392995724513</v>
+        <v>-0.024903498183267</v>
       </c>
       <c r="D21">
-        <v>0.001906942121924868</v>
+        <v>0.004652914251220488</v>
       </c>
       <c r="E21">
-        <v>0.06054641616522214</v>
+        <v>0.01923489555180167</v>
       </c>
       <c r="F21">
-        <v>-0.07573781107157933</v>
+        <v>-0.06986344450454041</v>
       </c>
       <c r="G21">
-        <v>-0.01656801978722011</v>
+        <v>0.06820655878024377</v>
       </c>
       <c r="H21">
-        <v>-0.09688188609380161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1092603370909962</v>
+      </c>
+      <c r="I21">
+        <v>-0.01543285437203326</v>
+      </c>
+      <c r="J21">
+        <v>0.04091521639382596</v>
+      </c>
+      <c r="K21">
+        <v>-0.1334219840876648</v>
+      </c>
+      <c r="L21">
+        <v>0.04669684548561721</v>
+      </c>
+      <c r="M21">
+        <v>0.06510539615937813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01864825343071142</v>
+        <v>-0.04520909669421034</v>
       </c>
       <c r="C22">
-        <v>0.03544683954454875</v>
+        <v>-0.02400840338649254</v>
       </c>
       <c r="D22">
-        <v>0.05342839681852945</v>
+        <v>0.6480102566269071</v>
       </c>
       <c r="E22">
-        <v>0.5175103163878281</v>
+        <v>0.1005572670824794</v>
       </c>
       <c r="F22">
-        <v>0.2441773946910236</v>
+        <v>0.05310958300343989</v>
       </c>
       <c r="G22">
-        <v>-0.1201416796292479</v>
+        <v>-0.1374269706476384</v>
       </c>
       <c r="H22">
-        <v>-0.114992838088628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1073630738065559</v>
+      </c>
+      <c r="I22">
+        <v>0.02483664626583615</v>
+      </c>
+      <c r="J22">
+        <v>-0.01949532615914449</v>
+      </c>
+      <c r="K22">
+        <v>0.03667393512658532</v>
+      </c>
+      <c r="L22">
+        <v>0.007556915202047152</v>
+      </c>
+      <c r="M22">
+        <v>0.004702035967610529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01808637944722091</v>
+        <v>-0.04565760612563693</v>
       </c>
       <c r="C23">
-        <v>0.03498430783806328</v>
+        <v>-0.02476305506748879</v>
       </c>
       <c r="D23">
-        <v>0.05285138496479953</v>
+        <v>0.6498033502582914</v>
       </c>
       <c r="E23">
-        <v>0.5169345050867528</v>
+        <v>0.1007322598989212</v>
       </c>
       <c r="F23">
-        <v>0.2438985907160504</v>
+        <v>0.05035243270765689</v>
       </c>
       <c r="G23">
-        <v>-0.1217122461092279</v>
+        <v>-0.1383471422011471</v>
       </c>
       <c r="H23">
-        <v>-0.1145719644408444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1048943798684697</v>
+      </c>
+      <c r="I23">
+        <v>0.02170367885369493</v>
+      </c>
+      <c r="J23">
+        <v>-0.02170514171395027</v>
+      </c>
+      <c r="K23">
+        <v>0.03870540089834686</v>
+      </c>
+      <c r="L23">
+        <v>0.00585641824681424</v>
+      </c>
+      <c r="M23">
+        <v>0.00587166541603896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07718385815624501</v>
+        <v>-0.07530488266501192</v>
       </c>
       <c r="C24">
-        <v>0.06347048369805909</v>
+        <v>-0.07255311758404079</v>
       </c>
       <c r="D24">
-        <v>-0.01883988664483667</v>
+        <v>-0.01602840763016501</v>
       </c>
       <c r="E24">
-        <v>0.03432311260796276</v>
+        <v>0.02070466182413282</v>
       </c>
       <c r="F24">
-        <v>0.01815807400343452</v>
+        <v>-0.119537754281407</v>
       </c>
       <c r="G24">
-        <v>0.07182001573282011</v>
+        <v>0.008458813020424248</v>
       </c>
       <c r="H24">
-        <v>0.06415365458436985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.03741853123825873</v>
+      </c>
+      <c r="I24">
+        <v>0.05485363930339913</v>
+      </c>
+      <c r="J24">
+        <v>0.04146914093289316</v>
+      </c>
+      <c r="K24">
+        <v>0.06383928765556159</v>
+      </c>
+      <c r="L24">
+        <v>-0.03952001898166586</v>
+      </c>
+      <c r="M24">
+        <v>0.1111471034177548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.0701658405182934</v>
+        <v>-0.07367973954828147</v>
       </c>
       <c r="C25">
-        <v>0.03555440832819079</v>
+        <v>-0.0509476363687667</v>
       </c>
       <c r="D25">
-        <v>-0.02081040177572303</v>
+        <v>-0.0344456388508608</v>
       </c>
       <c r="E25">
-        <v>0.02879033417184562</v>
+        <v>0.009149541205101121</v>
       </c>
       <c r="F25">
-        <v>0.01703279547501986</v>
+        <v>-0.1203934382477011</v>
       </c>
       <c r="G25">
-        <v>0.07279568957852836</v>
+        <v>8.325459048573949e-05</v>
       </c>
       <c r="H25">
-        <v>0.05055938316948329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.02410419071628977</v>
+      </c>
+      <c r="I25">
+        <v>0.05081796511606367</v>
+      </c>
+      <c r="J25">
+        <v>0.04390784196967106</v>
+      </c>
+      <c r="K25">
+        <v>0.06668232159915745</v>
+      </c>
+      <c r="L25">
+        <v>-0.05606893823140549</v>
+      </c>
+      <c r="M25">
+        <v>0.1156623087190719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.05012529206117998</v>
+        <v>-0.0430691478311466</v>
       </c>
       <c r="C26">
-        <v>0.0391983701516026</v>
+        <v>-0.01573713408672058</v>
       </c>
       <c r="D26">
-        <v>-0.03547716284484884</v>
+        <v>0.008566012759669402</v>
       </c>
       <c r="E26">
-        <v>0.00256043642935066</v>
+        <v>0.00831011466158954</v>
       </c>
       <c r="F26">
-        <v>0.02307439974941795</v>
+        <v>-0.05091016622006844</v>
       </c>
       <c r="G26">
-        <v>-0.0153897898779101</v>
+        <v>-0.01887857324353697</v>
       </c>
       <c r="H26">
-        <v>0.019798277001308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01299429780386168</v>
+      </c>
+      <c r="I26">
+        <v>0.004727740631381984</v>
+      </c>
+      <c r="J26">
+        <v>0.002676684780515133</v>
+      </c>
+      <c r="K26">
+        <v>-0.1303891414766292</v>
+      </c>
+      <c r="L26">
+        <v>0.0226554227872648</v>
+      </c>
+      <c r="M26">
+        <v>0.04337718663092271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.0945502611759156</v>
+        <v>-0.1447460641245513</v>
       </c>
       <c r="C28">
-        <v>-0.2912737883096405</v>
+        <v>0.2863727818009857</v>
       </c>
       <c r="D28">
-        <v>-0.06759332834011013</v>
+        <v>-0.008331630716019814</v>
       </c>
       <c r="E28">
-        <v>0.008301581006240351</v>
+        <v>0.01448639943063549</v>
       </c>
       <c r="F28">
-        <v>-0.0388029696014249</v>
+        <v>-0.004809253844564104</v>
       </c>
       <c r="G28">
-        <v>0.0100699115911052</v>
+        <v>0.004368263283173053</v>
       </c>
       <c r="H28">
-        <v>0.006013113169055846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01886988318997396</v>
+      </c>
+      <c r="I28">
+        <v>-0.01915356004119033</v>
+      </c>
+      <c r="J28">
+        <v>0.02347789481220536</v>
+      </c>
+      <c r="K28">
+        <v>-0.005066731540903754</v>
+      </c>
+      <c r="L28">
+        <v>0.01401289356675406</v>
+      </c>
+      <c r="M28">
+        <v>-0.01836441094662313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05397333073822471</v>
+        <v>-0.03914427049692246</v>
       </c>
       <c r="C29">
-        <v>0.01676166915531859</v>
+        <v>-0.02623839797681285</v>
       </c>
       <c r="D29">
-        <v>-0.008672739528800689</v>
+        <v>-0.007981991095957869</v>
       </c>
       <c r="E29">
-        <v>0.03136618198655013</v>
+        <v>0.01334062181814209</v>
       </c>
       <c r="F29">
-        <v>0.0197762466558776</v>
+        <v>-0.07310903451136283</v>
       </c>
       <c r="G29">
-        <v>-0.01190716967806185</v>
+        <v>-0.02315279272397347</v>
       </c>
       <c r="H29">
-        <v>-0.03460260633507025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.004805887608118429</v>
+      </c>
+      <c r="I29">
+        <v>-0.01426392986150019</v>
+      </c>
+      <c r="J29">
+        <v>0.0003016486490004008</v>
+      </c>
+      <c r="K29">
+        <v>-0.0988711024540951</v>
+      </c>
+      <c r="L29">
+        <v>-0.017697298132414</v>
+      </c>
+      <c r="M29">
+        <v>0.02671777864236744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1255293427108213</v>
+        <v>-0.109037806681048</v>
       </c>
       <c r="C30">
-        <v>0.04481311621577753</v>
+        <v>-0.06382333048764975</v>
       </c>
       <c r="D30">
-        <v>-0.05205410918596214</v>
+        <v>-0.0004687673784193915</v>
       </c>
       <c r="E30">
-        <v>0.1071936835281844</v>
+        <v>0.000634693743408415</v>
       </c>
       <c r="F30">
-        <v>-0.03667250536357116</v>
+        <v>-0.228643749915078</v>
       </c>
       <c r="G30">
-        <v>0.1665175022895546</v>
+        <v>-0.1553813719217706</v>
       </c>
       <c r="H30">
-        <v>-0.04065328009507454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2415216408337779</v>
+      </c>
+      <c r="I30">
+        <v>-0.1096713450810146</v>
+      </c>
+      <c r="J30">
+        <v>0.02277069313509669</v>
+      </c>
+      <c r="K30">
+        <v>-0.04052123564308432</v>
+      </c>
+      <c r="L30">
+        <v>-0.1004459527728192</v>
+      </c>
+      <c r="M30">
+        <v>-0.5235780056319151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05056059015755238</v>
+        <v>-0.03786043221435822</v>
       </c>
       <c r="C31">
-        <v>0.02051746892335886</v>
+        <v>-0.04920544206097839</v>
       </c>
       <c r="D31">
-        <v>0.0102469370110577</v>
+        <v>0.003249349087778128</v>
       </c>
       <c r="E31">
-        <v>0.001286800510566055</v>
+        <v>-0.003040557655263099</v>
       </c>
       <c r="F31">
-        <v>0.02327794963710493</v>
+        <v>-0.02765463005908393</v>
       </c>
       <c r="G31">
-        <v>-0.03582614620594155</v>
+        <v>-0.01505114075416349</v>
       </c>
       <c r="H31">
-        <v>0.02830367233397506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.0460015195235355</v>
+      </c>
+      <c r="I31">
+        <v>0.001127034371231085</v>
+      </c>
+      <c r="J31">
+        <v>-0.001561878024532085</v>
+      </c>
+      <c r="K31">
+        <v>-0.02473137527848961</v>
+      </c>
+      <c r="L31">
+        <v>-0.03254277660953895</v>
+      </c>
+      <c r="M31">
+        <v>0.006214384147843892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02050391818446341</v>
+        <v>-0.04306906087734882</v>
       </c>
       <c r="C32">
-        <v>-0.01583435123710567</v>
+        <v>0.001660587495854426</v>
       </c>
       <c r="D32">
-        <v>-0.001150817955423833</v>
+        <v>-0.01430503957660713</v>
       </c>
       <c r="E32">
-        <v>0.07271161684791054</v>
+        <v>-0.01837404576312488</v>
       </c>
       <c r="F32">
-        <v>0.1025961648073895</v>
+        <v>-0.08505578540227846</v>
       </c>
       <c r="G32">
-        <v>0.05280869814217573</v>
+        <v>0.01827886387961191</v>
       </c>
       <c r="H32">
-        <v>0.04477533905061248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03509095222804875</v>
+      </c>
+      <c r="I32">
+        <v>0.04306440380908953</v>
+      </c>
+      <c r="J32">
+        <v>0.04486048688584196</v>
+      </c>
+      <c r="K32">
+        <v>-0.04785242694243788</v>
+      </c>
+      <c r="L32">
+        <v>-0.01891301862565857</v>
+      </c>
+      <c r="M32">
+        <v>-0.1485403800070763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1173630016691274</v>
+        <v>-0.09700342796080264</v>
       </c>
       <c r="C33">
-        <v>0.04168926866769812</v>
+        <v>-0.06372496605165216</v>
       </c>
       <c r="D33">
-        <v>-0.007128976266034182</v>
+        <v>-0.02073414092451165</v>
       </c>
       <c r="E33">
-        <v>0.01489203784249883</v>
+        <v>-0.001852149873000417</v>
       </c>
       <c r="F33">
-        <v>0.06148747645219095</v>
+        <v>-0.08126294109029047</v>
       </c>
       <c r="G33">
-        <v>0.01892282790922636</v>
+        <v>-0.02088323687291749</v>
       </c>
       <c r="H33">
-        <v>0.003625587026308779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.002830214432568815</v>
+      </c>
+      <c r="I33">
+        <v>0.01984149484194937</v>
+      </c>
+      <c r="J33">
+        <v>-0.03448008395264725</v>
+      </c>
+      <c r="K33">
+        <v>-0.04044764916719933</v>
+      </c>
+      <c r="L33">
+        <v>-0.01103775471077872</v>
+      </c>
+      <c r="M33">
+        <v>0.01700640591118205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05750582670593105</v>
+        <v>-0.06299069798861294</v>
       </c>
       <c r="C34">
-        <v>0.06682310824406743</v>
+        <v>-0.06408524291009907</v>
       </c>
       <c r="D34">
-        <v>-0.006896245056428531</v>
+        <v>-0.02560300814660199</v>
       </c>
       <c r="E34">
-        <v>0.01394706708722624</v>
+        <v>0.008110799671947944</v>
       </c>
       <c r="F34">
-        <v>0.01931234760941229</v>
+        <v>-0.1109100205186145</v>
       </c>
       <c r="G34">
-        <v>0.05046889692432712</v>
+        <v>0.002805998067730339</v>
       </c>
       <c r="H34">
-        <v>0.04356351614475476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.01872062509958457</v>
+      </c>
+      <c r="I34">
+        <v>0.04590094125395059</v>
+      </c>
+      <c r="J34">
+        <v>0.06597459991463234</v>
+      </c>
+      <c r="K34">
+        <v>0.0122744574740082</v>
+      </c>
+      <c r="L34">
+        <v>-0.04083226877785313</v>
+      </c>
+      <c r="M34">
+        <v>0.1288737707841847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04422603417473895</v>
+        <v>-0.02475993050202364</v>
       </c>
       <c r="C35">
-        <v>0.0324742543010001</v>
+        <v>-0.02466272699271602</v>
       </c>
       <c r="D35">
-        <v>0.007563081747675849</v>
+        <v>-0.001411308923258507</v>
       </c>
       <c r="E35">
-        <v>0.01644692117253612</v>
+        <v>-0.007317266383847196</v>
       </c>
       <c r="F35">
-        <v>-0.009298983930687723</v>
+        <v>-0.0400794244752562</v>
       </c>
       <c r="G35">
-        <v>0.006569503217682101</v>
+        <v>-0.02005222399456788</v>
       </c>
       <c r="H35">
-        <v>0.04288915876403002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02173509759470761</v>
+      </c>
+      <c r="I35">
+        <v>0.01177730777202634</v>
+      </c>
+      <c r="J35">
+        <v>0.05810859213408887</v>
+      </c>
+      <c r="K35">
+        <v>-0.06080813911557732</v>
+      </c>
+      <c r="L35">
+        <v>-0.03085788736164876</v>
+      </c>
+      <c r="M35">
+        <v>0.01749804407886044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03225932386237317</v>
+        <v>-0.02704255492531115</v>
       </c>
       <c r="C36">
-        <v>0.0166231358220025</v>
+        <v>-0.01572805853033055</v>
       </c>
       <c r="D36">
-        <v>-0.02317623548219115</v>
+        <v>0.01028820014575857</v>
       </c>
       <c r="E36">
-        <v>0.02919478460671417</v>
+        <v>0.01506752462438907</v>
       </c>
       <c r="F36">
-        <v>0.02429934843953987</v>
+        <v>-0.06716749644864815</v>
       </c>
       <c r="G36">
-        <v>0.00849262273972402</v>
+        <v>-0.008607190707347803</v>
       </c>
       <c r="H36">
-        <v>0.02440925285844045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.009559886523263452</v>
+      </c>
+      <c r="I36">
+        <v>-0.01342874615127311</v>
+      </c>
+      <c r="J36">
+        <v>-0.02365193748946537</v>
+      </c>
+      <c r="K36">
+        <v>-0.04316990562193752</v>
+      </c>
+      <c r="L36">
+        <v>-0.0162349267490757</v>
+      </c>
+      <c r="M36">
+        <v>0.05635593490438843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.05165349352029993</v>
+        <v>-0.028399389048976</v>
       </c>
       <c r="C38">
-        <v>0.04019961307294044</v>
+        <v>-0.04620410465435279</v>
       </c>
       <c r="D38">
-        <v>-0.005774797976769265</v>
+        <v>0.01914152257083221</v>
       </c>
       <c r="E38">
-        <v>0.02702100195954676</v>
+        <v>0.01838704748135949</v>
       </c>
       <c r="F38">
-        <v>0.04326575223980133</v>
+        <v>0.04749740695085219</v>
       </c>
       <c r="G38">
-        <v>0.02734435217126449</v>
+        <v>-0.05146878782564103</v>
       </c>
       <c r="H38">
-        <v>-0.01679566111896712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.002076489479121269</v>
+      </c>
+      <c r="I38">
+        <v>0.01679745103464926</v>
+      </c>
+      <c r="J38">
+        <v>0.01021969141455973</v>
+      </c>
+      <c r="K38">
+        <v>-0.07226076873114783</v>
+      </c>
+      <c r="L38">
+        <v>0.09910011603030362</v>
+      </c>
+      <c r="M38">
+        <v>-0.08045252667022518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09664069412703365</v>
+        <v>-0.1041501011984818</v>
       </c>
       <c r="C39">
-        <v>0.07281782161852583</v>
+        <v>-0.09217116705300331</v>
       </c>
       <c r="D39">
-        <v>0.003427782158540282</v>
+        <v>-0.0877324209698099</v>
       </c>
       <c r="E39">
-        <v>0.01976644682573676</v>
+        <v>-0.02600294106438045</v>
       </c>
       <c r="F39">
-        <v>-0.001729062281928172</v>
+        <v>-0.1622416193066089</v>
       </c>
       <c r="G39">
-        <v>0.1217333403687448</v>
+        <v>-0.09944675949796904</v>
       </c>
       <c r="H39">
-        <v>0.1342466018527229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08224142703292231</v>
+      </c>
+      <c r="I39">
+        <v>0.04640003661367498</v>
+      </c>
+      <c r="J39">
+        <v>0.1394242307423076</v>
+      </c>
+      <c r="K39">
+        <v>0.144690345854101</v>
+      </c>
+      <c r="L39">
+        <v>-0.09110250065187347</v>
+      </c>
+      <c r="M39">
+        <v>-0.006098092624781979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04827664352804323</v>
+        <v>-0.03284552358579573</v>
       </c>
       <c r="C40">
-        <v>0.02945877676621814</v>
+        <v>-0.05874090903763145</v>
       </c>
       <c r="D40">
-        <v>0.04301556011454392</v>
+        <v>0.04165808082942837</v>
       </c>
       <c r="E40">
-        <v>0.1164550452579134</v>
+        <v>0.0144063609254992</v>
       </c>
       <c r="F40">
-        <v>0.06240757670263149</v>
+        <v>-0.1103053656351327</v>
       </c>
       <c r="G40">
-        <v>0.1394893445277717</v>
+        <v>0.03536029473243772</v>
       </c>
       <c r="H40">
-        <v>0.1511012762147565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08163424481272313</v>
+      </c>
+      <c r="I40">
+        <v>0.02669226736752299</v>
+      </c>
+      <c r="J40">
+        <v>-0.001178534540224576</v>
+      </c>
+      <c r="K40">
+        <v>-0.07249880842479911</v>
+      </c>
+      <c r="L40">
+        <v>0.1069288466866368</v>
+      </c>
+      <c r="M40">
+        <v>-0.0835075183477839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04492012268544186</v>
+        <v>-0.039703977253389</v>
       </c>
       <c r="C41">
-        <v>0.04099755318539015</v>
+        <v>-0.03806922536552585</v>
       </c>
       <c r="D41">
-        <v>-0.0007706173359778272</v>
+        <v>-0.01615991460648364</v>
       </c>
       <c r="E41">
-        <v>-0.007770070034669332</v>
+        <v>-0.002961513978263026</v>
       </c>
       <c r="F41">
-        <v>0.02091213229975564</v>
+        <v>-0.02616305758514891</v>
       </c>
       <c r="G41">
-        <v>0.0232535908341177</v>
+        <v>-0.02611378173704821</v>
       </c>
       <c r="H41">
-        <v>0.0442196914178812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.001662269155224101</v>
+      </c>
+      <c r="I41">
+        <v>0.01273435018724243</v>
+      </c>
+      <c r="J41">
+        <v>0.03766785268953322</v>
+      </c>
+      <c r="K41">
+        <v>-0.04549892475724748</v>
+      </c>
+      <c r="L41">
+        <v>0.00771157961716421</v>
+      </c>
+      <c r="M41">
+        <v>0.0185125212575948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06104422666094664</v>
+        <v>-0.05115408308052315</v>
       </c>
       <c r="C43">
-        <v>0.03177208980504156</v>
+        <v>-0.0437867575636522</v>
       </c>
       <c r="D43">
-        <v>-0.02272137723440762</v>
+        <v>0.01123987355005885</v>
       </c>
       <c r="E43">
-        <v>0.02591305467667466</v>
+        <v>0.01327075017657572</v>
       </c>
       <c r="F43">
-        <v>0.01746717909477969</v>
+        <v>-0.01712461313191739</v>
       </c>
       <c r="G43">
-        <v>0.005322929828898959</v>
+        <v>-0.05286994015172168</v>
       </c>
       <c r="H43">
-        <v>0.00543706342518241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.008933782669156969</v>
+      </c>
+      <c r="I43">
+        <v>-0.01382987561594555</v>
+      </c>
+      <c r="J43">
+        <v>0.04681369948896946</v>
+      </c>
+      <c r="K43">
+        <v>-0.01930742640060051</v>
+      </c>
+      <c r="L43">
+        <v>-0.005736083553802188</v>
+      </c>
+      <c r="M43">
+        <v>0.0304748535337475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05297518282177366</v>
+        <v>-0.0839553735327634</v>
       </c>
       <c r="C44">
-        <v>0.01921777545747519</v>
+        <v>-0.06132172551142554</v>
       </c>
       <c r="D44">
-        <v>-0.08104212428653559</v>
+        <v>0.06986692666369035</v>
       </c>
       <c r="E44">
-        <v>0.06726934514280834</v>
+        <v>0.08339562941658006</v>
       </c>
       <c r="F44">
-        <v>0.01489590414696223</v>
+        <v>-0.1755728955196211</v>
       </c>
       <c r="G44">
-        <v>0.1181964577095367</v>
+        <v>-0.005360361693460916</v>
       </c>
       <c r="H44">
-        <v>0.04960617335563947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.0293020328923858</v>
+      </c>
+      <c r="I44">
+        <v>0.03018375627118822</v>
+      </c>
+      <c r="J44">
+        <v>0.03244887242258234</v>
+      </c>
+      <c r="K44">
+        <v>-0.03578578103036349</v>
+      </c>
+      <c r="L44">
+        <v>0.04574725894200915</v>
+      </c>
+      <c r="M44">
+        <v>-0.03923308202920997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03247121979343634</v>
+        <v>-0.03366022866652615</v>
       </c>
       <c r="C46">
-        <v>0.04675963662466176</v>
+        <v>-0.0389337923063874</v>
       </c>
       <c r="D46">
-        <v>-0.0154836192267296</v>
+        <v>0.03479727052978762</v>
       </c>
       <c r="E46">
-        <v>0.04870409415367111</v>
+        <v>0.0439082499407751</v>
       </c>
       <c r="F46">
-        <v>0.02079733520091621</v>
+        <v>-0.05706958094158451</v>
       </c>
       <c r="G46">
-        <v>0.002573895743116953</v>
+        <v>-8.196946771598348e-05</v>
       </c>
       <c r="H46">
-        <v>-0.00557337297361171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.006330193873598289</v>
+      </c>
+      <c r="I46">
+        <v>0.02970960414139014</v>
+      </c>
+      <c r="J46">
+        <v>-0.001107210430781519</v>
+      </c>
+      <c r="K46">
+        <v>-0.1240076485257863</v>
+      </c>
+      <c r="L46">
+        <v>-0.03148432284138684</v>
+      </c>
+      <c r="M46">
+        <v>0.03530334709052345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03144355303783058</v>
+        <v>-0.04167290161837782</v>
       </c>
       <c r="C47">
-        <v>0.01165120167584334</v>
+        <v>-0.02856991566317735</v>
       </c>
       <c r="D47">
-        <v>-0.0021907276332016</v>
+        <v>0.01720446993182769</v>
       </c>
       <c r="E47">
-        <v>0.06366086789096048</v>
+        <v>0.01133969326131129</v>
       </c>
       <c r="F47">
-        <v>0.02464924964171951</v>
+        <v>-0.03671121467315149</v>
       </c>
       <c r="G47">
-        <v>-0.01192527261452204</v>
+        <v>-0.008362485880598635</v>
       </c>
       <c r="H47">
-        <v>-0.004970270927103899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.006943903212302031</v>
+      </c>
+      <c r="I47">
+        <v>-0.02607663484028509</v>
+      </c>
+      <c r="J47">
+        <v>-0.0006260681289730262</v>
+      </c>
+      <c r="K47">
+        <v>-0.05427674829216919</v>
+      </c>
+      <c r="L47">
+        <v>0.007096643581445896</v>
+      </c>
+      <c r="M47">
+        <v>0.05512339673391974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03952400369535414</v>
+        <v>-0.04271743606907683</v>
       </c>
       <c r="C48">
-        <v>0.02409254704556451</v>
+        <v>-0.02047864332781947</v>
       </c>
       <c r="D48">
-        <v>0.003380464043245368</v>
+        <v>0.008103325230880604</v>
       </c>
       <c r="E48">
-        <v>0.0498750682623356</v>
+        <v>0.006503932527822501</v>
       </c>
       <c r="F48">
-        <v>0.03567416646325168</v>
+        <v>-0.07297028340410888</v>
       </c>
       <c r="G48">
-        <v>-0.01156116551857229</v>
+        <v>0.02347534623405962</v>
       </c>
       <c r="H48">
-        <v>0.03940323726139276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.02519701430556053</v>
+      </c>
+      <c r="I48">
+        <v>-0.009835879383634184</v>
+      </c>
+      <c r="J48">
+        <v>0.002738733526970281</v>
+      </c>
+      <c r="K48">
+        <v>-0.04113834930937772</v>
+      </c>
+      <c r="L48">
+        <v>-0.04338463875970734</v>
+      </c>
+      <c r="M48">
+        <v>0.04843115463595191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2257357224134582</v>
+        <v>-0.2258411642208048</v>
       </c>
       <c r="C49">
-        <v>0.1123449897637355</v>
+        <v>-0.07263551199727979</v>
       </c>
       <c r="D49">
-        <v>-0.04147977464639974</v>
+        <v>-0.05271088192915568</v>
       </c>
       <c r="E49">
-        <v>-0.0249695547148058</v>
+        <v>0.05700829574650872</v>
       </c>
       <c r="F49">
-        <v>-0.1834194053129242</v>
+        <v>0.2317119399786176</v>
       </c>
       <c r="G49">
-        <v>0.02176606322488025</v>
+        <v>0.1164701186878413</v>
       </c>
       <c r="H49">
-        <v>-0.05674260524349417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1744504930227571</v>
+      </c>
+      <c r="I49">
+        <v>0.1248939081134315</v>
+      </c>
+      <c r="J49">
+        <v>0.007533133636846332</v>
+      </c>
+      <c r="K49">
+        <v>0.1525061264656265</v>
+      </c>
+      <c r="L49">
+        <v>-0.002802914248014033</v>
+      </c>
+      <c r="M49">
+        <v>0.06343383526138072</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05792658315700622</v>
+        <v>-0.04647652759020558</v>
       </c>
       <c r="C50">
-        <v>0.02518297277869018</v>
+        <v>-0.03802802361764346</v>
       </c>
       <c r="D50">
-        <v>0.005854795028552936</v>
+        <v>9.818815494988596e-05</v>
       </c>
       <c r="E50">
-        <v>0.02358337789810005</v>
+        <v>-0.005612824135847871</v>
       </c>
       <c r="F50">
-        <v>0.06018193022139164</v>
+        <v>-0.04904548645618859</v>
       </c>
       <c r="G50">
-        <v>-0.04122056297192467</v>
+        <v>-0.03385425660264265</v>
       </c>
       <c r="H50">
-        <v>-0.0130247697134441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02985474842090276</v>
+      </c>
+      <c r="I50">
+        <v>-0.007166623822031411</v>
+      </c>
+      <c r="J50">
+        <v>-0.0223467840194822</v>
+      </c>
+      <c r="K50">
+        <v>-0.04747166355549693</v>
+      </c>
+      <c r="L50">
+        <v>-0.03085044986410064</v>
+      </c>
+      <c r="M50">
+        <v>-0.003461369308371658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02791394571015551</v>
+        <v>-0.02610282303890828</v>
       </c>
       <c r="C51">
-        <v>0.01378738687400566</v>
+        <v>-0.004972070685504996</v>
       </c>
       <c r="D51">
-        <v>-0.004558292564917546</v>
+        <v>-0.002419248043890105</v>
       </c>
       <c r="E51">
-        <v>-0.005054841089063153</v>
+        <v>0.0189545510038428</v>
       </c>
       <c r="F51">
-        <v>0.01182063798746164</v>
+        <v>0.02394274524282454</v>
       </c>
       <c r="G51">
-        <v>0.01240858904864762</v>
+        <v>8.226245593844952e-05</v>
       </c>
       <c r="H51">
-        <v>0.01317070570144028</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.004784308319479897</v>
+      </c>
+      <c r="I51">
+        <v>0.008657825195620892</v>
+      </c>
+      <c r="J51">
+        <v>0.03985684357522076</v>
+      </c>
+      <c r="K51">
+        <v>0.05897985691355184</v>
+      </c>
+      <c r="L51">
+        <v>-0.01655183780185253</v>
+      </c>
+      <c r="M51">
+        <v>0.01569980636834165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.04109867758783869</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01692743648134993</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01266568033810074</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01130800278166803</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01792210022605703</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05085059459222987</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01440994252850073</v>
+      </c>
+      <c r="I52">
+        <v>0.01132956164966193</v>
+      </c>
+      <c r="J52">
+        <v>-0.03722177417517918</v>
+      </c>
+      <c r="K52">
+        <v>0.0285618233552397</v>
+      </c>
+      <c r="L52">
+        <v>-0.02396617663484564</v>
+      </c>
+      <c r="M52">
+        <v>-0.06199610867863217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1690160316669304</v>
+        <v>-0.1623681607209795</v>
       </c>
       <c r="C53">
-        <v>-0.001813385730096772</v>
+        <v>-0.04836981722323461</v>
       </c>
       <c r="D53">
-        <v>-0.02012688344689943</v>
+        <v>-0.01353528724087607</v>
       </c>
       <c r="E53">
-        <v>-0.1152034367140864</v>
+        <v>-0.003676727135874044</v>
       </c>
       <c r="F53">
-        <v>0.2135092703435908</v>
+        <v>0.06934018774432432</v>
       </c>
       <c r="G53">
-        <v>-0.02512555928731902</v>
+        <v>-0.174289458433236</v>
       </c>
       <c r="H53">
-        <v>0.02588852279557944</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1895591662418119</v>
+      </c>
+      <c r="I53">
+        <v>0.07186206440229791</v>
+      </c>
+      <c r="J53">
+        <v>-0.1188262208962522</v>
+      </c>
+      <c r="K53">
+        <v>-0.01039756518047648</v>
+      </c>
+      <c r="L53">
+        <v>0.006346219134248826</v>
+      </c>
+      <c r="M53">
+        <v>-0.08604762354842774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05324116161537235</v>
+        <v>-0.05389373429353778</v>
       </c>
       <c r="C54">
-        <v>0.03064971003027984</v>
+        <v>-0.04034613659841922</v>
       </c>
       <c r="D54">
-        <v>-0.02601456677181414</v>
+        <v>0.01344032919645926</v>
       </c>
       <c r="E54">
-        <v>0.05367742000250911</v>
+        <v>0.02030667718285343</v>
       </c>
       <c r="F54">
-        <v>0.03531173173531416</v>
+        <v>-0.1368033449475248</v>
       </c>
       <c r="G54">
-        <v>0.01214944870284732</v>
+        <v>0.02814265932076744</v>
       </c>
       <c r="H54">
-        <v>-0.009782697270409037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.02843315077566013</v>
+      </c>
+      <c r="I54">
+        <v>-0.05183649416303383</v>
+      </c>
+      <c r="J54">
+        <v>0.02169279266658358</v>
+      </c>
+      <c r="K54">
+        <v>-0.1409966272636058</v>
+      </c>
+      <c r="L54">
+        <v>-0.01901471241372683</v>
+      </c>
+      <c r="M54">
+        <v>0.0438095710022372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09337963761249188</v>
+        <v>-0.08500016645872847</v>
       </c>
       <c r="C55">
-        <v>0.002134810246957353</v>
+        <v>-0.03812168540693924</v>
       </c>
       <c r="D55">
-        <v>-0.01718562198392742</v>
+        <v>-0.03048477364586209</v>
       </c>
       <c r="E55">
-        <v>-0.04119920757614078</v>
+        <v>0.009782961278440121</v>
       </c>
       <c r="F55">
-        <v>0.1828552961393231</v>
+        <v>0.001822155561729202</v>
       </c>
       <c r="G55">
-        <v>-0.03170905425018435</v>
+        <v>-0.09339368931002322</v>
       </c>
       <c r="H55">
-        <v>0.01326750152901045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1396263969984108</v>
+      </c>
+      <c r="I55">
+        <v>0.0427161275817811</v>
+      </c>
+      <c r="J55">
+        <v>-0.05946639653409075</v>
+      </c>
+      <c r="K55">
+        <v>-0.01809875766252831</v>
+      </c>
+      <c r="L55">
+        <v>0.00565047735057306</v>
+      </c>
+      <c r="M55">
+        <v>0.02662913460750722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1694625586128355</v>
+        <v>-0.1511439641905245</v>
       </c>
       <c r="C56">
-        <v>0.007547131767773693</v>
+        <v>-0.06490842334967462</v>
       </c>
       <c r="D56">
-        <v>-0.02132526544684867</v>
+        <v>-0.03705444346463927</v>
       </c>
       <c r="E56">
-        <v>-0.1047467123424587</v>
+        <v>0.0280765915131998</v>
       </c>
       <c r="F56">
-        <v>0.2186474475191327</v>
+        <v>0.04379369293218198</v>
       </c>
       <c r="G56">
-        <v>-0.06257592357081762</v>
+        <v>-0.1637575596189755</v>
       </c>
       <c r="H56">
-        <v>0.02586837006758884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1750714211709967</v>
+      </c>
+      <c r="I56">
+        <v>0.07211703584565221</v>
+      </c>
+      <c r="J56">
+        <v>-0.1017980352025506</v>
+      </c>
+      <c r="K56">
+        <v>-0.005784490086035356</v>
+      </c>
+      <c r="L56">
+        <v>0.0513718291560344</v>
+      </c>
+      <c r="M56">
+        <v>-0.02572542630986137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02771519898601059</v>
+        <v>-0.0387726150197737</v>
       </c>
       <c r="C58">
-        <v>0.04954900220411822</v>
+        <v>-0.03696244059369854</v>
       </c>
       <c r="D58">
-        <v>0.02266219471979783</v>
+        <v>0.08156736302423681</v>
       </c>
       <c r="E58">
-        <v>0.4164672193885694</v>
+        <v>0.02297056041682933</v>
       </c>
       <c r="F58">
-        <v>-0.3055291255213558</v>
+        <v>-0.04078906985466411</v>
       </c>
       <c r="G58">
-        <v>-0.1925866267931903</v>
+        <v>-0.006479638796921547</v>
       </c>
       <c r="H58">
-        <v>0.5484559878084394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1390044163310808</v>
+      </c>
+      <c r="I58">
+        <v>-0.05585194142729336</v>
+      </c>
+      <c r="J58">
+        <v>0.1926679597535097</v>
+      </c>
+      <c r="K58">
+        <v>0.08884362168323925</v>
+      </c>
+      <c r="L58">
+        <v>-0.4346088641561447</v>
+      </c>
+      <c r="M58">
+        <v>0.0394643379815247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.1969873269167251</v>
+        <v>-0.2251583821723207</v>
       </c>
       <c r="C59">
-        <v>-0.4070966792317613</v>
+        <v>0.2957719524347926</v>
       </c>
       <c r="D59">
-        <v>-0.08342633692686359</v>
+        <v>-0.04124860593690781</v>
       </c>
       <c r="E59">
-        <v>-0.002216108614917744</v>
+        <v>-0.003865116914502973</v>
       </c>
       <c r="F59">
-        <v>0.05135895027115298</v>
+        <v>-0.01854960886719132</v>
       </c>
       <c r="G59">
-        <v>0.07325403957628744</v>
+        <v>-0.0192693307837027</v>
       </c>
       <c r="H59">
-        <v>0.02582940008714241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.114543891981872</v>
+      </c>
+      <c r="I59">
+        <v>0.02253542921181721</v>
+      </c>
+      <c r="J59">
+        <v>0.02801889687025849</v>
+      </c>
+      <c r="K59">
+        <v>0.08247096764434628</v>
+      </c>
+      <c r="L59">
+        <v>0.08383924036289431</v>
+      </c>
+      <c r="M59">
+        <v>-0.03194974094115494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2658389988652385</v>
+        <v>-0.2416874956198813</v>
       </c>
       <c r="C60">
-        <v>0.06752715884488526</v>
+        <v>-0.1202621017643508</v>
       </c>
       <c r="D60">
-        <v>-0.08234118984380674</v>
+        <v>-0.06601804023729051</v>
       </c>
       <c r="E60">
-        <v>-0.02177655356301657</v>
+        <v>0.04559687053836696</v>
       </c>
       <c r="F60">
-        <v>-0.07966105908989025</v>
+        <v>0.1365027298107536</v>
       </c>
       <c r="G60">
-        <v>-0.04480933168292488</v>
+        <v>0.04172491937748112</v>
       </c>
       <c r="H60">
-        <v>-0.1428787336911082</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07925759348254707</v>
+      </c>
+      <c r="I60">
+        <v>-0.0517199441570752</v>
+      </c>
+      <c r="J60">
+        <v>-0.1815120101025427</v>
+      </c>
+      <c r="K60">
+        <v>0.1790156900007664</v>
+      </c>
+      <c r="L60">
+        <v>-0.01147228480539668</v>
+      </c>
+      <c r="M60">
+        <v>-0.07168782719908094</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08571074678496574</v>
+        <v>-0.1030871908433333</v>
       </c>
       <c r="C61">
-        <v>0.04475651246237385</v>
+        <v>-0.06264899473870346</v>
       </c>
       <c r="D61">
-        <v>-0.007231681294133976</v>
+        <v>-0.05071551615532818</v>
       </c>
       <c r="E61">
-        <v>-0.007428469661971042</v>
+        <v>0.009427923307543055</v>
       </c>
       <c r="F61">
-        <v>0.008514151836457505</v>
+        <v>-0.1410575503440567</v>
       </c>
       <c r="G61">
-        <v>0.04472655167933979</v>
+        <v>-0.09185187794823639</v>
       </c>
       <c r="H61">
-        <v>0.07922552606540384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.02151837936651012</v>
+      </c>
+      <c r="I61">
+        <v>0.050074833810644</v>
+      </c>
+      <c r="J61">
+        <v>0.08754690478086506</v>
+      </c>
+      <c r="K61">
+        <v>0.02808758805331477</v>
+      </c>
+      <c r="L61">
+        <v>-0.0444828271825865</v>
+      </c>
+      <c r="M61">
+        <v>0.01170022577252445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1579392170947144</v>
+        <v>-0.1431810143788212</v>
       </c>
       <c r="C62">
-        <v>0.02902123591846427</v>
+        <v>-0.0665556968586989</v>
       </c>
       <c r="D62">
-        <v>0.01914239693062506</v>
+        <v>-0.03382856479389735</v>
       </c>
       <c r="E62">
-        <v>-0.1739666104528706</v>
+        <v>-0.01464562052572224</v>
       </c>
       <c r="F62">
-        <v>0.2016811333620672</v>
+        <v>0.05386742326558056</v>
       </c>
       <c r="G62">
-        <v>-0.001048988977809302</v>
+        <v>-0.1173181666413551</v>
       </c>
       <c r="H62">
-        <v>0.01246162256210293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1655755584465782</v>
+      </c>
+      <c r="I62">
+        <v>0.09041634993996986</v>
+      </c>
+      <c r="J62">
+        <v>-0.1404413561395089</v>
+      </c>
+      <c r="K62">
+        <v>-0.06749328047438816</v>
+      </c>
+      <c r="L62">
+        <v>0.05494399429541778</v>
+      </c>
+      <c r="M62">
+        <v>0.03965393645058894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03902926133087657</v>
+        <v>-0.04556070504544462</v>
       </c>
       <c r="C63">
-        <v>0.03064475818408233</v>
+        <v>-0.02949898374218513</v>
       </c>
       <c r="D63">
-        <v>0.003622264574266101</v>
+        <v>-0.004454116998686496</v>
       </c>
       <c r="E63">
-        <v>0.00190002084539321</v>
+        <v>-0.01226760586709129</v>
       </c>
       <c r="F63">
-        <v>0.01748984079637846</v>
+        <v>-0.07268140171388311</v>
       </c>
       <c r="G63">
-        <v>-0.003032320895943342</v>
+        <v>7.925068886171377e-05</v>
       </c>
       <c r="H63">
-        <v>-0.01962530057457508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01172148683676843</v>
+      </c>
+      <c r="I63">
+        <v>0.001928010433557268</v>
+      </c>
+      <c r="J63">
+        <v>0.008916199800871466</v>
+      </c>
+      <c r="K63">
+        <v>-0.03214749794971935</v>
+      </c>
+      <c r="L63">
+        <v>-0.04556989806816773</v>
+      </c>
+      <c r="M63">
+        <v>0.04055419853446068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.109525483969763</v>
+        <v>-0.09940541255951346</v>
       </c>
       <c r="C64">
-        <v>0.03128107347719755</v>
+        <v>-0.04800623572932512</v>
       </c>
       <c r="D64">
-        <v>-0.04371070435484685</v>
+        <v>0.002748624142739385</v>
       </c>
       <c r="E64">
-        <v>0.04139031248844201</v>
+        <v>0.03002285455923219</v>
       </c>
       <c r="F64">
-        <v>-0.01706688579800908</v>
+        <v>-0.08270912720442498</v>
       </c>
       <c r="G64">
-        <v>0.0673032144761935</v>
+        <v>-0.02552612985369185</v>
       </c>
       <c r="H64">
-        <v>-0.02442238849877831</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.09378874483781577</v>
+      </c>
+      <c r="I64">
+        <v>-0.02145095239768161</v>
+      </c>
+      <c r="J64">
+        <v>0.01833148437810853</v>
+      </c>
+      <c r="K64">
+        <v>0.01328012468288782</v>
+      </c>
+      <c r="L64">
+        <v>0.007924641910304862</v>
+      </c>
+      <c r="M64">
+        <v>-0.03808250420952723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1287439831036124</v>
+        <v>-0.1252109059901953</v>
       </c>
       <c r="C65">
-        <v>0.04711220390068768</v>
+        <v>-0.05341808748883379</v>
       </c>
       <c r="D65">
-        <v>-0.03182529913914757</v>
+        <v>-0.01005546208264052</v>
       </c>
       <c r="E65">
-        <v>0.0929613879229111</v>
+        <v>-0.02677297374317859</v>
       </c>
       <c r="F65">
-        <v>-0.1973074018187873</v>
+        <v>0.03035829956289421</v>
       </c>
       <c r="G65">
-        <v>-0.2879104052396946</v>
+        <v>0.1138751898661645</v>
       </c>
       <c r="H65">
-        <v>-0.4693718119515546</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.06885780124728109</v>
+      </c>
+      <c r="I65">
+        <v>-0.4546263018383431</v>
+      </c>
+      <c r="J65">
+        <v>-0.4826182895524663</v>
+      </c>
+      <c r="K65">
+        <v>-0.06759608829347404</v>
+      </c>
+      <c r="L65">
+        <v>-0.2729243093611957</v>
+      </c>
+      <c r="M65">
+        <v>-0.02839305125935786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1589044207232252</v>
+        <v>-0.1344466830735966</v>
       </c>
       <c r="C66">
-        <v>0.09545973412596466</v>
+        <v>-0.1250007323917898</v>
       </c>
       <c r="D66">
-        <v>0.007705985291190928</v>
+        <v>-0.102559339571022</v>
       </c>
       <c r="E66">
-        <v>-0.02107361928060868</v>
+        <v>-0.03469218592859358</v>
       </c>
       <c r="F66">
-        <v>0.01563558536987063</v>
+        <v>-0.1649913108197143</v>
       </c>
       <c r="G66">
-        <v>0.2359026475917876</v>
+        <v>-0.1157799388207867</v>
       </c>
       <c r="H66">
-        <v>0.2487422347849808</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.09685075612880886</v>
+      </c>
+      <c r="I66">
+        <v>0.1102995917332553</v>
+      </c>
+      <c r="J66">
+        <v>0.1063861461940147</v>
+      </c>
+      <c r="K66">
+        <v>0.1880942083022489</v>
+      </c>
+      <c r="L66">
+        <v>-0.02936787020286098</v>
+      </c>
+      <c r="M66">
+        <v>-0.09986580470521192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08997711436852233</v>
+        <v>-0.07590340720244762</v>
       </c>
       <c r="C67">
-        <v>0.05393712941979173</v>
+        <v>-0.0542491328497304</v>
       </c>
       <c r="D67">
-        <v>-0.02528513888236955</v>
+        <v>0.01815847757763193</v>
       </c>
       <c r="E67">
-        <v>0.001950447882147394</v>
+        <v>0.03155902620235874</v>
       </c>
       <c r="F67">
-        <v>0.03220306352687904</v>
+        <v>0.04669351133419059</v>
       </c>
       <c r="G67">
-        <v>0.03448267408643176</v>
+        <v>-0.06346047289445735</v>
       </c>
       <c r="H67">
-        <v>0.001391690952770949</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.02456724923013611</v>
+      </c>
+      <c r="I67">
+        <v>0.01221808477370246</v>
+      </c>
+      <c r="J67">
+        <v>0.02850549011008142</v>
+      </c>
+      <c r="K67">
+        <v>-0.001231716743568017</v>
+      </c>
+      <c r="L67">
+        <v>0.1610421519768958</v>
+      </c>
+      <c r="M67">
+        <v>-0.05887273791205866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.07416958901125596</v>
+        <v>-0.1225477846771128</v>
       </c>
       <c r="C68">
-        <v>-0.2896757898530193</v>
+        <v>0.2709785574728934</v>
       </c>
       <c r="D68">
-        <v>-0.0277266039695278</v>
+        <v>-0.005959142635781918</v>
       </c>
       <c r="E68">
-        <v>0.02895366556287068</v>
+        <v>-0.01613155677687665</v>
       </c>
       <c r="F68">
-        <v>0.02889534748435202</v>
+        <v>-0.04027579535379662</v>
       </c>
       <c r="G68">
-        <v>-0.03850822744687196</v>
+        <v>-0.0240440373798163</v>
       </c>
       <c r="H68">
-        <v>0.01300409841422146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.004594275910553515</v>
+      </c>
+      <c r="I68">
+        <v>-0.02404800218733261</v>
+      </c>
+      <c r="J68">
+        <v>-0.03381759694104305</v>
+      </c>
+      <c r="K68">
+        <v>-0.01510475235683113</v>
+      </c>
+      <c r="L68">
+        <v>-0.05009881863875913</v>
+      </c>
+      <c r="M68">
+        <v>0.003347372176106097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03436821472745865</v>
+        <v>-0.04496205869433426</v>
       </c>
       <c r="C69">
-        <v>0.01855110947734881</v>
+        <v>-0.01923805799776948</v>
       </c>
       <c r="D69">
-        <v>-0.005910207553147093</v>
+        <v>0.003489069397551959</v>
       </c>
       <c r="E69">
-        <v>0.006082596621890455</v>
+        <v>0.002282913860276208</v>
       </c>
       <c r="F69">
-        <v>0.03396334713343444</v>
+        <v>-0.02318660269933629</v>
       </c>
       <c r="G69">
-        <v>0.03463674091190061</v>
+        <v>-0.03639504118784054</v>
       </c>
       <c r="H69">
-        <v>-0.02353819303689727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0009213773138265585</v>
+      </c>
+      <c r="I69">
+        <v>-0.007547239880865498</v>
+      </c>
+      <c r="J69">
+        <v>0.00350015371165426</v>
+      </c>
+      <c r="K69">
+        <v>-0.02190942100302727</v>
+      </c>
+      <c r="L69">
+        <v>0.01154419035529099</v>
+      </c>
+      <c r="M69">
+        <v>0.05962581249394038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.06386183738121094</v>
+        <v>-0.05366234461278646</v>
       </c>
       <c r="C70">
-        <v>0.0147052504318948</v>
+        <v>-0.02511309957197326</v>
       </c>
       <c r="D70">
-        <v>-0.03706322897473078</v>
+        <v>-0.02919379823698013</v>
       </c>
       <c r="E70">
-        <v>-0.0006771814793145882</v>
+        <v>0.02336290072395311</v>
       </c>
       <c r="F70">
-        <v>-0.08569712759343397</v>
+        <v>-0.03779723355004358</v>
       </c>
       <c r="G70">
-        <v>-0.0362974259672306</v>
+        <v>0.02175220789786938</v>
       </c>
       <c r="H70">
-        <v>-0.008320213343118259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02888396207888847</v>
+      </c>
+      <c r="I70">
+        <v>-0.1012885547833593</v>
+      </c>
+      <c r="J70">
+        <v>0.09516029418067792</v>
+      </c>
+      <c r="K70">
+        <v>-0.3176692481800373</v>
+      </c>
+      <c r="L70">
+        <v>0.1629205441462797</v>
+      </c>
+      <c r="M70">
+        <v>-0.1029184559240049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08255307521416087</v>
+        <v>-0.1378316774834861</v>
       </c>
       <c r="C71">
-        <v>-0.2849038989013741</v>
+        <v>0.2797924482703595</v>
       </c>
       <c r="D71">
-        <v>-0.05830347527078107</v>
+        <v>-0.01235403673772788</v>
       </c>
       <c r="E71">
-        <v>0.01354268197822228</v>
+        <v>0.005442319146452686</v>
       </c>
       <c r="F71">
-        <v>-0.005516564543412565</v>
+        <v>-0.03307056812921588</v>
       </c>
       <c r="G71">
-        <v>-0.01786881738808064</v>
+        <v>-0.03322254887037744</v>
       </c>
       <c r="H71">
-        <v>0.0182929253681919</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.01986922759928601</v>
+      </c>
+      <c r="I71">
+        <v>-0.01011997987528146</v>
+      </c>
+      <c r="J71">
+        <v>-0.01228298026338864</v>
+      </c>
+      <c r="K71">
+        <v>0.008838045868925374</v>
+      </c>
+      <c r="L71">
+        <v>-0.02952679582622059</v>
+      </c>
+      <c r="M71">
+        <v>0.001066471003355406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1787988269940467</v>
+        <v>-0.1479436166841449</v>
       </c>
       <c r="C72">
-        <v>0.001624921783761645</v>
+        <v>-0.02985371299779517</v>
       </c>
       <c r="D72">
-        <v>0.2329458168108778</v>
+        <v>0.0098244229504156</v>
       </c>
       <c r="E72">
-        <v>-0.02562272038966846</v>
+        <v>-0.1509572312293128</v>
       </c>
       <c r="F72">
-        <v>0.04201190800034512</v>
+        <v>-0.01269281827306046</v>
       </c>
       <c r="G72">
-        <v>0.04105774488772704</v>
+        <v>-0.04436307634044297</v>
       </c>
       <c r="H72">
-        <v>-0.1260800892712749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02455782347328812</v>
+      </c>
+      <c r="I72">
+        <v>-0.02141152568225743</v>
+      </c>
+      <c r="J72">
+        <v>-0.1480180365782078</v>
+      </c>
+      <c r="K72">
+        <v>0.04989471332148861</v>
+      </c>
+      <c r="L72">
+        <v>0.01459186044600343</v>
+      </c>
+      <c r="M72">
+        <v>0.01270947809396152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2899926063084327</v>
+        <v>-0.2425179114552473</v>
       </c>
       <c r="C73">
-        <v>0.1649015380350516</v>
+        <v>-0.1472836215089065</v>
       </c>
       <c r="D73">
-        <v>-0.09664241228170141</v>
+        <v>-0.1468779727849469</v>
       </c>
       <c r="E73">
-        <v>-0.04876705865944907</v>
+        <v>0.1193363357205161</v>
       </c>
       <c r="F73">
-        <v>-0.2544833990928568</v>
+        <v>0.4654661281841048</v>
       </c>
       <c r="G73">
-        <v>-0.1130174562721837</v>
+        <v>0.02046370229054688</v>
       </c>
       <c r="H73">
-        <v>-0.02947379792193965</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3116798055332214</v>
+      </c>
+      <c r="I73">
+        <v>0.02456670771803915</v>
+      </c>
+      <c r="J73">
+        <v>0.1365867450659285</v>
+      </c>
+      <c r="K73">
+        <v>0.2663173376626298</v>
+      </c>
+      <c r="L73">
+        <v>-0.08352269786735847</v>
+      </c>
+      <c r="M73">
+        <v>-0.05384115608247955</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09412660372082744</v>
+        <v>-0.1007752487227697</v>
       </c>
       <c r="C74">
-        <v>0.03386533967180318</v>
+        <v>-0.07329188638744849</v>
       </c>
       <c r="D74">
-        <v>-0.007088083317893042</v>
+        <v>-0.01126722670321543</v>
       </c>
       <c r="E74">
-        <v>-0.03809150037617632</v>
+        <v>-0.00330450816772691</v>
       </c>
       <c r="F74">
-        <v>0.09888518238822408</v>
+        <v>0.04047012805220686</v>
       </c>
       <c r="G74">
-        <v>-0.05848613027399163</v>
+        <v>-0.1390039191428955</v>
       </c>
       <c r="H74">
-        <v>0.03206229286267567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05649304790771049</v>
+      </c>
+      <c r="I74">
+        <v>0.03905978608753723</v>
+      </c>
+      <c r="J74">
+        <v>-0.04189192705351194</v>
+      </c>
+      <c r="K74">
+        <v>-0.007986820721865594</v>
+      </c>
+      <c r="L74">
+        <v>-0.006295897772597571</v>
+      </c>
+      <c r="M74">
+        <v>0.006673490937730946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09842475207500508</v>
+        <v>-0.09784623806785304</v>
       </c>
       <c r="C75">
-        <v>0.01851933908861599</v>
+        <v>-0.05147351708427537</v>
       </c>
       <c r="D75">
-        <v>-0.002746696914922595</v>
+        <v>-0.007928335885840502</v>
       </c>
       <c r="E75">
-        <v>-0.05235363585837471</v>
+        <v>0.002498030027971995</v>
       </c>
       <c r="F75">
-        <v>0.1197596968472348</v>
+        <v>0.03488770355062124</v>
       </c>
       <c r="G75">
-        <v>-0.0476316361130083</v>
+        <v>-0.06617715537712107</v>
       </c>
       <c r="H75">
-        <v>0.0003998707513247915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1175641376233365</v>
+      </c>
+      <c r="I75">
+        <v>0.02284691661650343</v>
+      </c>
+      <c r="J75">
+        <v>-0.05021649508372835</v>
+      </c>
+      <c r="K75">
+        <v>0.002627525835325279</v>
+      </c>
+      <c r="L75">
+        <v>0.01592826377893067</v>
+      </c>
+      <c r="M75">
+        <v>0.04783992643656294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1349168459871731</v>
+        <v>-0.0772307753039002</v>
       </c>
       <c r="C76">
-        <v>0.02862061678343373</v>
+        <v>-0.05508839976429387</v>
       </c>
       <c r="D76">
-        <v>-0.01784590582873384</v>
+        <v>-0.005379052925393659</v>
       </c>
       <c r="E76">
-        <v>-0.04951140679329725</v>
+        <v>0.02164041915809705</v>
       </c>
       <c r="F76">
-        <v>0.2184407347176346</v>
+        <v>0.06523611854725421</v>
       </c>
       <c r="G76">
-        <v>-0.06911197196688068</v>
+        <v>-0.1068384539038174</v>
       </c>
       <c r="H76">
-        <v>0.003416780101168556</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1673958110243048</v>
+      </c>
+      <c r="I76">
+        <v>0.05271980125881677</v>
+      </c>
+      <c r="J76">
+        <v>-0.01785476048994489</v>
+      </c>
+      <c r="K76">
+        <v>-0.03800092962709371</v>
+      </c>
+      <c r="L76">
+        <v>0.01740875311239731</v>
+      </c>
+      <c r="M76">
+        <v>-0.01244230605044302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07749351920150077</v>
+        <v>-0.0700223611981879</v>
       </c>
       <c r="C77">
-        <v>0.0321711646262537</v>
+        <v>-0.02713366989000639</v>
       </c>
       <c r="D77">
-        <v>-0.02806886368284668</v>
+        <v>-0.02770648256130399</v>
       </c>
       <c r="E77">
-        <v>0.1101071209696443</v>
+        <v>0.03331835850153218</v>
       </c>
       <c r="F77">
-        <v>-0.1847388205874605</v>
+        <v>-0.2427902022760138</v>
       </c>
       <c r="G77">
-        <v>0.6664686167509547</v>
+        <v>0.07161306472756805</v>
       </c>
       <c r="H77">
-        <v>-0.2521762198444774</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1879156188368855</v>
+      </c>
+      <c r="I77">
+        <v>-0.2359302687125725</v>
+      </c>
+      <c r="J77">
+        <v>-0.0869257158964583</v>
+      </c>
+      <c r="K77">
+        <v>0.3269777831963853</v>
+      </c>
+      <c r="L77">
+        <v>0.625807864426048</v>
+      </c>
+      <c r="M77">
+        <v>-0.05454803068570293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.17352014482971</v>
+        <v>-0.1552706765754955</v>
       </c>
       <c r="C78">
-        <v>0.09505021178226736</v>
+        <v>-0.111205869674263</v>
       </c>
       <c r="D78">
-        <v>-0.04061060908834717</v>
+        <v>0.1908802858489524</v>
       </c>
       <c r="E78">
-        <v>0.2050269693893648</v>
+        <v>0.1072282890150469</v>
       </c>
       <c r="F78">
-        <v>0.02853074219679577</v>
+        <v>-0.1288598609432637</v>
       </c>
       <c r="G78">
-        <v>0.08062580187482404</v>
+        <v>0.5658895111774883</v>
       </c>
       <c r="H78">
-        <v>-0.09277918159374859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5616940928370721</v>
+      </c>
+      <c r="I78">
+        <v>-0.07377998458232131</v>
+      </c>
+      <c r="J78">
+        <v>0.1707827753300142</v>
+      </c>
+      <c r="K78">
+        <v>0.307790916185673</v>
+      </c>
+      <c r="L78">
+        <v>-0.06012226254014367</v>
+      </c>
+      <c r="M78">
+        <v>-0.158484498117193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1383717936027427</v>
+        <v>-0.134950782709636</v>
       </c>
       <c r="C79">
-        <v>0.03303061304723726</v>
+        <v>-0.07270514643035011</v>
       </c>
       <c r="D79">
-        <v>-0.004853012919013667</v>
+        <v>-0.006178762833532985</v>
       </c>
       <c r="E79">
-        <v>-0.0721191794600531</v>
+        <v>0.01506320582693999</v>
       </c>
       <c r="F79">
-        <v>0.1613372689936254</v>
+        <v>0.006441131848650377</v>
       </c>
       <c r="G79">
-        <v>-0.02459293689812649</v>
+        <v>-0.1226343764554325</v>
       </c>
       <c r="H79">
-        <v>0.008687828829831344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1189459441110957</v>
+      </c>
+      <c r="I79">
+        <v>0.06777840543694091</v>
+      </c>
+      <c r="J79">
+        <v>-0.1001086702161526</v>
+      </c>
+      <c r="K79">
+        <v>-0.01856236559969072</v>
+      </c>
+      <c r="L79">
+        <v>0.02661984725313181</v>
+      </c>
+      <c r="M79">
+        <v>0.04209205342317564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03620082467703774</v>
+        <v>-0.05891482196082801</v>
       </c>
       <c r="C80">
-        <v>0.01313939675173134</v>
+        <v>-0.0294956245490551</v>
       </c>
       <c r="D80">
-        <v>-0.01229813168744716</v>
+        <v>-0.0699233713072541</v>
       </c>
       <c r="E80">
-        <v>-0.02960797519046043</v>
+        <v>0.006145317708796557</v>
       </c>
       <c r="F80">
-        <v>-0.009723156241836048</v>
+        <v>-0.03905090740051759</v>
       </c>
       <c r="G80">
-        <v>-0.01400889383121547</v>
+        <v>-0.001810177987664835</v>
       </c>
       <c r="H80">
-        <v>-0.04987669832391932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01572102987341756</v>
+      </c>
+      <c r="I80">
+        <v>-0.08041934902308803</v>
+      </c>
+      <c r="J80">
+        <v>0.07916568902578365</v>
+      </c>
+      <c r="K80">
+        <v>-0.1386672037652607</v>
+      </c>
+      <c r="L80">
+        <v>-0.143897805872848</v>
+      </c>
+      <c r="M80">
+        <v>-0.0150514531090342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1060908950881471</v>
+        <v>-0.1222817221039129</v>
       </c>
       <c r="C81">
-        <v>0.03189503021719966</v>
+        <v>-0.06375109405746532</v>
       </c>
       <c r="D81">
-        <v>-0.01497099606134179</v>
+        <v>-0.002518724797376457</v>
       </c>
       <c r="E81">
-        <v>-0.08310509174220668</v>
+        <v>0.001119854273593892</v>
       </c>
       <c r="F81">
-        <v>0.1214202569889042</v>
+        <v>-0.009403928967883274</v>
       </c>
       <c r="G81">
-        <v>-0.01731244951079891</v>
+        <v>-0.08240556401414512</v>
       </c>
       <c r="H81">
-        <v>-0.03536129856445629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.1041537310076708</v>
+      </c>
+      <c r="I81">
+        <v>0.06905200831907163</v>
+      </c>
+      <c r="J81">
+        <v>-0.06864764220694006</v>
+      </c>
+      <c r="K81">
+        <v>-0.01093798910201982</v>
+      </c>
+      <c r="L81">
+        <v>0.02042254955541026</v>
+      </c>
+      <c r="M81">
+        <v>0.0734567470985731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1123406270290533</v>
+        <v>-0.1257821495054546</v>
       </c>
       <c r="C82">
-        <v>0.02821043105538571</v>
+        <v>-0.05115257046546862</v>
       </c>
       <c r="D82">
-        <v>-0.06532076806681378</v>
+        <v>-0.0270968638683024</v>
       </c>
       <c r="E82">
-        <v>-0.1062076845052295</v>
+        <v>0.01247145472697893</v>
       </c>
       <c r="F82">
-        <v>0.2251718934362875</v>
+        <v>0.02527903381928578</v>
       </c>
       <c r="G82">
-        <v>-0.02862310294546776</v>
+        <v>-0.1883386120968335</v>
       </c>
       <c r="H82">
-        <v>0.09871141147961351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1510187976421003</v>
+      </c>
+      <c r="I82">
+        <v>0.1205407878573329</v>
+      </c>
+      <c r="J82">
+        <v>-0.00962476705290875</v>
+      </c>
+      <c r="K82">
+        <v>-0.06873768062346744</v>
+      </c>
+      <c r="L82">
+        <v>0.0426540207265878</v>
+      </c>
+      <c r="M82">
+        <v>0.02877228156709296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08331649916003164</v>
+        <v>-0.07487626386579545</v>
       </c>
       <c r="C83">
-        <v>0.06696753103443948</v>
+        <v>-0.0811631974761836</v>
       </c>
       <c r="D83">
-        <v>-0.05267308344596176</v>
+        <v>-0.03300399024803057</v>
       </c>
       <c r="E83">
-        <v>0.008672872445852221</v>
+        <v>0.002613285867668443</v>
       </c>
       <c r="F83">
-        <v>-0.04834273658815583</v>
+        <v>-0.05377738782221882</v>
       </c>
       <c r="G83">
-        <v>0.03316343315186467</v>
+        <v>-0.09416271984546215</v>
       </c>
       <c r="H83">
-        <v>0.09944014684709063</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.03121120854912053</v>
+      </c>
+      <c r="I83">
+        <v>-0.09293590999930414</v>
+      </c>
+      <c r="J83">
+        <v>0.1308952294947998</v>
+      </c>
+      <c r="K83">
+        <v>-0.1056714563980267</v>
+      </c>
+      <c r="L83">
+        <v>0.02358354149404806</v>
+      </c>
+      <c r="M83">
+        <v>-0.07235091210373797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05781274356765135</v>
+        <v>-0.05883000257882885</v>
       </c>
       <c r="C84">
-        <v>0.04628248738742055</v>
+        <v>0.01730206655236078</v>
       </c>
       <c r="D84">
-        <v>0.05488585210521278</v>
+        <v>0.002492345873704672</v>
       </c>
       <c r="E84">
-        <v>0.01564178743405181</v>
+        <v>-0.01474590879562227</v>
       </c>
       <c r="F84">
-        <v>0.06556437654428089</v>
+        <v>-0.01773816867330877</v>
       </c>
       <c r="G84">
-        <v>-0.1419578362431587</v>
+        <v>0.1854759440409282</v>
       </c>
       <c r="H84">
-        <v>0.07948792846755114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.06259200543303199</v>
+      </c>
+      <c r="I84">
+        <v>0.2273951970430449</v>
+      </c>
+      <c r="J84">
+        <v>0.1289064550637804</v>
+      </c>
+      <c r="K84">
+        <v>-0.1040388874895139</v>
+      </c>
+      <c r="L84">
+        <v>-0.1686509540301294</v>
+      </c>
+      <c r="M84">
+        <v>-0.270812330545311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09537659912707162</v>
+        <v>-0.1102019391620669</v>
       </c>
       <c r="C85">
-        <v>0.03551628635836695</v>
+        <v>-0.04971867640367694</v>
       </c>
       <c r="D85">
-        <v>-0.0300230759819821</v>
+        <v>-0.01656321170428889</v>
       </c>
       <c r="E85">
-        <v>-0.06429180975797244</v>
+        <v>0.04079341637389484</v>
       </c>
       <c r="F85">
-        <v>0.1840482742611435</v>
+        <v>0.006620184038836819</v>
       </c>
       <c r="G85">
-        <v>0.002958020584793747</v>
+        <v>-0.1273905036798906</v>
       </c>
       <c r="H85">
-        <v>-0.01181042200773576</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1160550806597472</v>
+      </c>
+      <c r="I85">
+        <v>0.06835685944668772</v>
+      </c>
+      <c r="J85">
+        <v>-0.1131205506123353</v>
+      </c>
+      <c r="K85">
+        <v>-0.005821194362981679</v>
+      </c>
+      <c r="L85">
+        <v>0.03541723514493091</v>
+      </c>
+      <c r="M85">
+        <v>0.05306840344048529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04901278250008604</v>
+        <v>-0.07445234918328593</v>
       </c>
       <c r="C86">
-        <v>0.0407133392906206</v>
+        <v>-0.02512174901577711</v>
       </c>
       <c r="D86">
-        <v>-0.03001330568194644</v>
+        <v>0.01089542821391456</v>
       </c>
       <c r="E86">
-        <v>0.03287421355495763</v>
+        <v>0.1279984807111142</v>
       </c>
       <c r="F86">
-        <v>-0.00523925464164225</v>
+        <v>-0.04667747970215085</v>
       </c>
       <c r="G86">
-        <v>0.0219780789190128</v>
+        <v>0.4107183281111838</v>
       </c>
       <c r="H86">
-        <v>-0.1724237443171103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.204686683627939</v>
+      </c>
+      <c r="I86">
+        <v>0.569751117484424</v>
+      </c>
+      <c r="J86">
+        <v>-0.4057165241570404</v>
+      </c>
+      <c r="K86">
+        <v>-0.2303239473443781</v>
+      </c>
+      <c r="L86">
+        <v>0.05334644868949812</v>
+      </c>
+      <c r="M86">
+        <v>-0.1443112855732018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09146007147555908</v>
+        <v>-0.1104007539252372</v>
       </c>
       <c r="C87">
-        <v>0.05184298651762542</v>
+        <v>-0.08246172431351931</v>
       </c>
       <c r="D87">
-        <v>-0.008102997006187726</v>
+        <v>0.02303433797222013</v>
       </c>
       <c r="E87">
-        <v>0.06021266884008291</v>
+        <v>-0.008452853989193211</v>
       </c>
       <c r="F87">
-        <v>-0.01619942563954429</v>
+        <v>-0.1314146924760572</v>
       </c>
       <c r="G87">
-        <v>0.133012502701548</v>
+        <v>0.0440876254111562</v>
       </c>
       <c r="H87">
-        <v>0.02070312854290708</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1136285466192766</v>
+      </c>
+      <c r="I87">
+        <v>-0.08208329803821203</v>
+      </c>
+      <c r="J87">
+        <v>0.001189893953216722</v>
+      </c>
+      <c r="K87">
+        <v>-0.04469190677776531</v>
+      </c>
+      <c r="L87">
+        <v>0.2216060491935701</v>
+      </c>
+      <c r="M87">
+        <v>0.1030482941940364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05646255162225925</v>
+        <v>-0.05844652243206883</v>
       </c>
       <c r="C88">
-        <v>0.03859398424022079</v>
+        <v>-0.05430674237617056</v>
       </c>
       <c r="D88">
-        <v>-0.02035948357365783</v>
+        <v>-0.03279619219748193</v>
       </c>
       <c r="E88">
-        <v>0.002905900801245601</v>
+        <v>0.006803213440308202</v>
       </c>
       <c r="F88">
-        <v>-0.01166581812264814</v>
+        <v>-0.04049134695726278</v>
       </c>
       <c r="G88">
-        <v>0.03438785353324528</v>
+        <v>-0.04323721952298696</v>
       </c>
       <c r="H88">
-        <v>0.03456574847699088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.02088975049841923</v>
+      </c>
+      <c r="I88">
+        <v>0.003266964024833671</v>
+      </c>
+      <c r="J88">
+        <v>0.03831135091366707</v>
+      </c>
+      <c r="K88">
+        <v>-0.01639262948656092</v>
+      </c>
+      <c r="L88">
+        <v>-0.05566711707824384</v>
+      </c>
+      <c r="M88">
+        <v>0.05625635551440498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1344354976703429</v>
+        <v>-0.203994607283471</v>
       </c>
       <c r="C89">
-        <v>-0.3502608595440063</v>
+        <v>0.367104122334405</v>
       </c>
       <c r="D89">
-        <v>-0.09722360889229879</v>
+        <v>0.04012125222344803</v>
       </c>
       <c r="E89">
-        <v>0.08615543363282964</v>
+        <v>0.05787884411647177</v>
       </c>
       <c r="F89">
-        <v>-0.05793647753962995</v>
+        <v>-0.02487257530409483</v>
       </c>
       <c r="G89">
-        <v>0.02389177739705603</v>
+        <v>0.02110447254975837</v>
       </c>
       <c r="H89">
-        <v>0.02772303955452038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02731728575070407</v>
+      </c>
+      <c r="I89">
+        <v>-0.01052955849190935</v>
+      </c>
+      <c r="J89">
+        <v>0.07699373408875984</v>
+      </c>
+      <c r="K89">
+        <v>-0.01843784333128153</v>
+      </c>
+      <c r="L89">
+        <v>-0.01582070471969933</v>
+      </c>
+      <c r="M89">
+        <v>0.04727852891308955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1062068558284873</v>
+        <v>-0.1506904473790419</v>
       </c>
       <c r="C90">
-        <v>-0.2763552248899591</v>
+        <v>0.271547033759993</v>
       </c>
       <c r="D90">
-        <v>-0.04361474185085254</v>
+        <v>-0.008322357546538343</v>
       </c>
       <c r="E90">
-        <v>0.0597206962287463</v>
+        <v>0.008490102395677192</v>
       </c>
       <c r="F90">
-        <v>-0.03684315984044667</v>
+        <v>-0.0313366169009756</v>
       </c>
       <c r="G90">
-        <v>0.1023758328422833</v>
+        <v>-0.01341399411927112</v>
       </c>
       <c r="H90">
-        <v>0.02787555775797085</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06630935620165142</v>
+      </c>
+      <c r="I90">
+        <v>0.008053187387975808</v>
+      </c>
+      <c r="J90">
+        <v>0.01516338856148242</v>
+      </c>
+      <c r="K90">
+        <v>0.04931627978212449</v>
+      </c>
+      <c r="L90">
+        <v>-0.02554087132576734</v>
+      </c>
+      <c r="M90">
+        <v>-0.04800867488998502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07970506303220364</v>
+        <v>-0.08168876437017096</v>
       </c>
       <c r="C91">
-        <v>0.01601674356227335</v>
+        <v>-0.05367787914736828</v>
       </c>
       <c r="D91">
-        <v>-0.01341156840095492</v>
+        <v>0.000987043525262911</v>
       </c>
       <c r="E91">
-        <v>-0.01054385933374356</v>
+        <v>0.009945489450802128</v>
       </c>
       <c r="F91">
-        <v>0.0946316806629489</v>
+        <v>0.01764402582742955</v>
       </c>
       <c r="G91">
-        <v>-0.0614871716269746</v>
+        <v>-0.06917918985296292</v>
       </c>
       <c r="H91">
-        <v>0.02841935359994734</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07271245157677411</v>
+      </c>
+      <c r="I91">
+        <v>0.04223749604799597</v>
+      </c>
+      <c r="J91">
+        <v>-0.0251709868662074</v>
+      </c>
+      <c r="K91">
+        <v>6.63543295083466e-05</v>
+      </c>
+      <c r="L91">
+        <v>-0.01033780773057812</v>
+      </c>
+      <c r="M91">
+        <v>-0.01438717708084371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1112984071552911</v>
+        <v>-0.1693450064877629</v>
       </c>
       <c r="C92">
-        <v>-0.3204418495311053</v>
+        <v>0.3146411414881862</v>
       </c>
       <c r="D92">
-        <v>-0.07588968334167126</v>
+        <v>0.03216565287263647</v>
       </c>
       <c r="E92">
-        <v>0.05108062692876124</v>
+        <v>0.03452888744925535</v>
       </c>
       <c r="F92">
-        <v>-0.0114444064470951</v>
+        <v>-0.04536394225010316</v>
       </c>
       <c r="G92">
-        <v>-0.09702124397522995</v>
+        <v>-0.02327319228974351</v>
       </c>
       <c r="H92">
-        <v>0.03159907747717186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02950677524958388</v>
+      </c>
+      <c r="I92">
+        <v>0.002430934759312375</v>
+      </c>
+      <c r="J92">
+        <v>0.04798338114003929</v>
+      </c>
+      <c r="K92">
+        <v>-0.01444899105863541</v>
+      </c>
+      <c r="L92">
+        <v>-0.04341150713422907</v>
+      </c>
+      <c r="M92">
+        <v>0.06252242138835631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1159073146751915</v>
+        <v>-0.1599832489225139</v>
       </c>
       <c r="C93">
-        <v>-0.2654846089773717</v>
+        <v>0.2916305264509439</v>
       </c>
       <c r="D93">
-        <v>-0.04780920746860749</v>
+        <v>-0.03206337901853795</v>
       </c>
       <c r="E93">
-        <v>0.02734563990894086</v>
+        <v>-0.002226005236433278</v>
       </c>
       <c r="F93">
-        <v>-0.03288116334549076</v>
+        <v>-0.01826657876975836</v>
       </c>
       <c r="G93">
-        <v>0.01760345015765288</v>
+        <v>0.005600677795981731</v>
       </c>
       <c r="H93">
-        <v>-0.009461065415402543</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03945854176086201</v>
+      </c>
+      <c r="I93">
+        <v>0.008885401104944197</v>
+      </c>
+      <c r="J93">
+        <v>-0.01313524601701227</v>
+      </c>
+      <c r="K93">
+        <v>-0.03126162438299356</v>
+      </c>
+      <c r="L93">
+        <v>-0.00744102796529905</v>
+      </c>
+      <c r="M93">
+        <v>-0.01773464359706339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09801594926246635</v>
+        <v>-0.1137161730528251</v>
       </c>
       <c r="C94">
-        <v>0.05376742834229258</v>
+        <v>-0.06824625958435492</v>
       </c>
       <c r="D94">
-        <v>-0.00653464555537911</v>
+        <v>0.01236854209076911</v>
       </c>
       <c r="E94">
-        <v>-0.01868601433138647</v>
+        <v>0.03728714957102975</v>
       </c>
       <c r="F94">
-        <v>0.162815884191396</v>
+        <v>0.03796986853492233</v>
       </c>
       <c r="G94">
-        <v>-0.07959212880882104</v>
+        <v>-0.1070319148388114</v>
       </c>
       <c r="H94">
-        <v>0.01688904603943659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.1071296529218575</v>
+      </c>
+      <c r="I94">
+        <v>0.0351883472745722</v>
+      </c>
+      <c r="J94">
+        <v>-0.03423184132403301</v>
+      </c>
+      <c r="K94">
+        <v>0.01193193905825817</v>
+      </c>
+      <c r="L94">
+        <v>-0.04827480949574461</v>
+      </c>
+      <c r="M94">
+        <v>0.01165731579277503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1171775474319219</v>
+        <v>-0.111871420665732</v>
       </c>
       <c r="C95">
-        <v>0.07987851366534574</v>
+        <v>-0.0656935577185828</v>
       </c>
       <c r="D95">
-        <v>-0.06230658658443174</v>
+        <v>0.01225555997657511</v>
       </c>
       <c r="E95">
-        <v>0.05121764314792528</v>
+        <v>0.08332635386532815</v>
       </c>
       <c r="F95">
-        <v>-0.04775376428401513</v>
+        <v>-0.07527776576576505</v>
       </c>
       <c r="G95">
-        <v>0.04009304557613667</v>
+        <v>0.2031427333208292</v>
       </c>
       <c r="H95">
-        <v>0.1022470431837147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.146602145657373</v>
+      </c>
+      <c r="I95">
+        <v>-0.01334214125033088</v>
+      </c>
+      <c r="J95">
+        <v>0.01592169797279097</v>
+      </c>
+      <c r="K95">
+        <v>-0.08547481291388868</v>
+      </c>
+      <c r="L95">
+        <v>-0.01368032988840173</v>
+      </c>
+      <c r="M95">
+        <v>0.5644100555739803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0002534222346134869</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002340544125768561</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-1.055268328443122e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001787308528438788</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0005320612036557872</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004759208571228834</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.004165655442102938</v>
+      </c>
+      <c r="I96">
+        <v>-0.002352915227454944</v>
+      </c>
+      <c r="J96">
+        <v>-0.0002322375150932542</v>
+      </c>
+      <c r="K96">
+        <v>0.004414751434243165</v>
+      </c>
+      <c r="L96">
+        <v>-0.002157292781070525</v>
+      </c>
+      <c r="M96">
+        <v>-0.007210303976764729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2299165150917896</v>
+        <v>-0.1634228409328922</v>
       </c>
       <c r="C97">
-        <v>-0.1088675285309914</v>
+        <v>-0.04941099909095471</v>
       </c>
       <c r="D97">
-        <v>0.9028598580140326</v>
+        <v>0.1580867592825601</v>
       </c>
       <c r="E97">
-        <v>-0.03610594310839511</v>
+        <v>-0.9270818663350837</v>
       </c>
       <c r="F97">
-        <v>-0.1029819705569639</v>
+        <v>0.02096483574980289</v>
       </c>
       <c r="G97">
-        <v>0.0145836269664714</v>
+        <v>0.1121918020474826</v>
       </c>
       <c r="H97">
-        <v>0.009334781620693063</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04720157632821496</v>
+      </c>
+      <c r="I97">
+        <v>0.08762208148191435</v>
+      </c>
+      <c r="J97">
+        <v>0.02593208783932474</v>
+      </c>
+      <c r="K97">
+        <v>0.01222585206067876</v>
+      </c>
+      <c r="L97">
+        <v>0.02331898066209968</v>
+      </c>
+      <c r="M97">
+        <v>0.03081002244831111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.288442834757237</v>
+        <v>-0.2533790574840653</v>
       </c>
       <c r="C98">
-        <v>0.08687553786334781</v>
+        <v>-0.1081752084959672</v>
       </c>
       <c r="D98">
-        <v>-0.09403876070361966</v>
+        <v>0.02050684149480327</v>
       </c>
       <c r="E98">
-        <v>-0.1778954157147061</v>
+        <v>0.01560571618237881</v>
       </c>
       <c r="F98">
-        <v>-0.317683696093134</v>
+        <v>0.3785570672192808</v>
       </c>
       <c r="G98">
-        <v>-0.277951887314351</v>
+        <v>0.1715299324941969</v>
       </c>
       <c r="H98">
-        <v>0.1401756306304858</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.02212421462049629</v>
+      </c>
+      <c r="I98">
+        <v>-0.2186539430905032</v>
+      </c>
+      <c r="J98">
+        <v>0.3758531655254303</v>
+      </c>
+      <c r="K98">
+        <v>-0.4127148009618278</v>
+      </c>
+      <c r="L98">
+        <v>0.2111917694183848</v>
+      </c>
+      <c r="M98">
+        <v>-0.05808227904327848</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.07004156569411514</v>
+        <v>-0.06557014577052407</v>
       </c>
       <c r="C99">
-        <v>0.04953807180924261</v>
+        <v>-0.04859007954178342</v>
       </c>
       <c r="D99">
-        <v>-0.0306301500856514</v>
+        <v>-0.001400317942510488</v>
       </c>
       <c r="E99">
-        <v>-0.004567002146405681</v>
+        <v>0.05343264545746532</v>
       </c>
       <c r="F99">
-        <v>0.01795470974573231</v>
+        <v>0.01162994018767195</v>
       </c>
       <c r="G99">
-        <v>0.02980659762810302</v>
+        <v>-0.0205107317875717</v>
       </c>
       <c r="H99">
-        <v>0.01576170703375059</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02523074540412134</v>
+      </c>
+      <c r="I99">
+        <v>0.008458197026985132</v>
+      </c>
+      <c r="J99">
+        <v>0.01638341643110399</v>
+      </c>
+      <c r="K99">
+        <v>0.03775243985465417</v>
+      </c>
+      <c r="L99">
+        <v>0.04433628361959861</v>
+      </c>
+      <c r="M99">
+        <v>0.04207990675471451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0006335580458680377</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.006811475884089577</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.004639193182536331</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.03286896913494581</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.02967550701901959</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.01805723470332013</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.01890035618989702</v>
+      </c>
+      <c r="I100">
+        <v>-0.009978488850036112</v>
+      </c>
+      <c r="J100">
+        <v>0.02528488052069735</v>
+      </c>
+      <c r="K100">
+        <v>-0.05098953314486588</v>
+      </c>
+      <c r="L100">
+        <v>0.02188083745803836</v>
+      </c>
+      <c r="M100">
+        <v>0.02534430488772598</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05427059393623009</v>
+        <v>-0.03901744202814058</v>
       </c>
       <c r="C101">
-        <v>0.01610426986187365</v>
+        <v>-0.02653723491151391</v>
       </c>
       <c r="D101">
-        <v>-0.009011402693135846</v>
+        <v>-0.008938850162851491</v>
       </c>
       <c r="E101">
-        <v>0.03021934800064997</v>
+        <v>0.01418186749946185</v>
       </c>
       <c r="F101">
-        <v>0.0186590362766097</v>
+        <v>-0.07088804392096784</v>
       </c>
       <c r="G101">
-        <v>-0.01167390165408961</v>
+        <v>-0.02365156398902357</v>
       </c>
       <c r="H101">
-        <v>-0.03412316389274801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.007235761313427641</v>
+      </c>
+      <c r="I101">
+        <v>-0.01325291262723204</v>
+      </c>
+      <c r="J101">
+        <v>0.004075961016051231</v>
+      </c>
+      <c r="K101">
+        <v>-0.09629333120784424</v>
+      </c>
+      <c r="L101">
+        <v>-0.01717062179822715</v>
+      </c>
+      <c r="M101">
+        <v>0.02839473195337455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
